--- a/Tests/mpc tests.xlsx
+++ b/Tests/mpc tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\FYP\pyLanderSim\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587DAC3-26BC-4D31-A484-CD487ECD030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE5EDA-DFED-4621-8651-2C0000F5C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Base case</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>TVC Lander Testing</t>
+  </si>
+  <si>
+    <t>lterm = (r_x - x)**2 + (r_z - z)**2 + (r_dx - dx)**2 + (r_dz - dz)**2</t>
+  </si>
+  <si>
+    <t>n_horizon = 50</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$17</c:f>
+              <c:f>Sheet1!$A$9:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -269,15 +275,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$17</c:f>
+              <c:f>Sheet1!$B$9:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.47</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.58</c:v>
+                  <c:v>-3.5638046534758501E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.62</c:v>
@@ -289,7 +295,7 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.37</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13.19</c:v>
@@ -304,7 +310,7 @@
                   <c:v>12.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.31</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,7 +613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$60:$A$70</c:f>
+              <c:f>Sheet1!$A$62:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -649,7 +655,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$60:$C$70</c:f>
+              <c:f>Sheet1!$C$62:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -987,7 +993,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$73:$A$83</c:f>
+              <c:f>Sheet1!$A$75:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1029,7 +1035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$73:$B$83</c:f>
+              <c:f>Sheet1!$B$75:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1367,7 +1373,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$73:$A$83</c:f>
+              <c:f>Sheet1!$A$75:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1409,7 +1415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$73:$C$83</c:f>
+              <c:f>Sheet1!$C$75:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1755,7 +1761,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$87:$A$97</c:f>
+              <c:f>Sheet1!$A$89:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1797,7 +1803,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$87:$B$97</c:f>
+              <c:f>Sheet1!$B$89:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2135,7 +2141,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$87:$A$97</c:f>
+              <c:f>Sheet1!$A$89:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2177,7 +2183,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$87:$C$97</c:f>
+              <c:f>Sheet1!$C$89:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2523,7 +2529,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$100:$A$110</c:f>
+              <c:f>Sheet1!$A$102:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2565,7 +2571,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$100:$B$110</c:f>
+              <c:f>Sheet1!$B$102:$B$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2903,7 +2909,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$100:$A$110</c:f>
+              <c:f>Sheet1!$A$102:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2945,7 +2951,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$100:$C$110</c:f>
+              <c:f>Sheet1!$C$102:$C$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3283,7 +3289,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$17</c:f>
+              <c:f>Sheet1!$A$9:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3325,15 +3331,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$17</c:f>
+              <c:f>Sheet1!$C$9:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>116.89</c:v>
+                  <c:v>111.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.89</c:v>
+                  <c:v>113.032300863378</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>118.99</c:v>
@@ -3345,7 +3351,7 @@
                   <c:v>121.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.58</c:v>
+                  <c:v>117.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>124.95</c:v>
@@ -3360,7 +3366,7 @@
                   <c:v>133.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.94</c:v>
+                  <c:v>123.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,7 +3669,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$30</c:f>
+              <c:f>Sheet1!$A$22:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3705,7 +3711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$30</c:f>
+              <c:f>Sheet1!$B$22:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4043,7 +4049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$30</c:f>
+              <c:f>Sheet1!$A$22:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4085,7 +4091,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$30</c:f>
+              <c:f>Sheet1!$C$22:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4423,7 +4429,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$A$43</c:f>
+              <c:f>Sheet1!$A$35:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4465,7 +4471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$B$43</c:f>
+              <c:f>Sheet1!$B$35:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4803,7 +4809,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$A$43</c:f>
+              <c:f>Sheet1!$A$35:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4845,7 +4851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$43</c:f>
+              <c:f>Sheet1!$C$35:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5183,7 +5189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$46:$A$56</c:f>
+              <c:f>Sheet1!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5225,7 +5231,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$46:$B$56</c:f>
+              <c:f>Sheet1!$B$48:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5563,7 +5569,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$46:$A$56</c:f>
+              <c:f>Sheet1!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5605,7 +5611,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$46:$C$56</c:f>
+              <c:f>Sheet1!$C$48:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5943,7 +5949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$60:$A$70</c:f>
+              <c:f>Sheet1!$A$62:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5985,7 +5991,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$B$70</c:f>
+              <c:f>Sheet1!$B$62:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -16021,10 +16027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53024B73-4110-4BB0-AABF-5DA1AF3A9961}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16040,189 +16046,177 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>-0.37</v>
-      </c>
-      <c r="C4">
-        <v>127.58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B7">
-        <v>13.47</v>
-      </c>
-      <c r="C7">
-        <v>116.89</v>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-0.04</v>
+      </c>
+      <c r="C6">
+        <v>117.61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="B8">
-        <v>13.58</v>
-      </c>
-      <c r="C8">
-        <v>117.89</v>
+      <c r="A8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="B9">
-        <v>13.62</v>
+        <v>-0.04</v>
       </c>
       <c r="C9">
-        <v>118.99</v>
+        <v>111.92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="B10">
-        <v>13.59</v>
+        <v>-3.5638046534758501E-2</v>
       </c>
       <c r="C10">
-        <v>120.21</v>
+        <v>113.032300863378</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="B11">
-        <v>13.5</v>
+        <v>13.62</v>
       </c>
       <c r="C11">
-        <v>121.58</v>
+        <v>118.99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="B12">
-        <f>B4</f>
-        <v>-0.37</v>
+        <v>13.59</v>
       </c>
       <c r="C12">
-        <f>C4</f>
-        <v>127.58</v>
+        <v>120.21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="B13">
-        <v>13.19</v>
+        <v>13.5</v>
       </c>
       <c r="C13">
-        <v>124.95</v>
+        <v>121.58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>13.02</v>
+        <f>B6</f>
+        <v>-0.04</v>
       </c>
       <c r="C14">
-        <v>127.08</v>
+        <f>C6</f>
+        <v>117.61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="B15">
-        <v>12.79</v>
+        <v>13.19</v>
       </c>
       <c r="C15">
-        <v>129.69999999999999</v>
+        <v>124.95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="B16">
-        <v>12.56</v>
+        <v>13.02</v>
       </c>
       <c r="C16">
-        <v>133.08000000000001</v>
+        <v>127.08</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="B17">
-        <v>12.31</v>
+        <v>12.79</v>
       </c>
       <c r="C17">
-        <v>137.94</v>
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="B18">
+        <v>12.56</v>
+      </c>
+      <c r="C18">
+        <v>133.08000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B20">
-        <v>13.9</v>
-      </c>
-      <c r="C20">
-        <v>123.14</v>
+      <c r="A19" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="B19">
+        <v>-0.04</v>
+      </c>
+      <c r="C19">
+        <v>123.38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="B21">
-        <v>13.77</v>
-      </c>
-      <c r="C21">
-        <v>123.15</v>
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="B22">
-        <v>13.68</v>
+        <v>13.9</v>
       </c>
       <c r="C22">
         <v>123.14</v>
@@ -16230,10 +16224,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="B23">
-        <v>13.55</v>
+        <v>13.77</v>
       </c>
       <c r="C23">
         <v>123.15</v>
@@ -16241,10 +16235,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="B24">
-        <v>13.46</v>
+        <v>13.68</v>
       </c>
       <c r="C24">
         <v>123.14</v>
@@ -16252,43 +16246,43 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="B25">
-        <v>13.37</v>
+        <v>13.55</v>
       </c>
       <c r="C25">
-        <v>123.14</v>
+        <v>123.15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="B26">
-        <v>13.25</v>
+        <v>13.46</v>
       </c>
       <c r="C26">
-        <v>123.15</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>13.16</v>
+        <v>13.37</v>
       </c>
       <c r="C27">
-        <v>123.15</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="B28">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="C28">
         <v>123.15</v>
@@ -16296,10 +16290,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="B29">
-        <v>12.94</v>
+        <v>13.16</v>
       </c>
       <c r="C29">
         <v>123.15</v>
@@ -16307,768 +16301,790 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="B30">
-        <v>12.85</v>
+        <v>13.07</v>
       </c>
       <c r="C30">
         <v>123.15</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="B31">
+        <v>12.94</v>
+      </c>
+      <c r="C31">
+        <v>123.15</v>
+      </c>
+    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B33">
-        <v>12.19</v>
-      </c>
-      <c r="C33">
-        <v>123.78</v>
+      <c r="A32" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="B32">
+        <v>12.85</v>
+      </c>
+      <c r="C32">
+        <v>123.15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="B34">
-        <v>12.45</v>
-      </c>
-      <c r="C34">
-        <v>123.58</v>
+      <c r="A34" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="B35">
-        <v>12.68</v>
+        <v>12.19</v>
       </c>
       <c r="C35">
-        <v>123.42</v>
+        <v>123.78</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="B36">
-        <v>12.93</v>
+        <v>12.45</v>
       </c>
       <c r="C36">
-        <v>123.29</v>
+        <v>123.58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="B37">
-        <v>13.14</v>
+        <v>12.68</v>
       </c>
       <c r="C37">
-        <v>123.2</v>
+        <v>123.42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="B38">
-        <v>13.37</v>
+        <v>12.93</v>
       </c>
       <c r="C38">
-        <v>123.14</v>
+        <v>123.29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="B39">
-        <v>13.54</v>
+        <v>13.14</v>
       </c>
       <c r="C39">
-        <v>123.14</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>13.73</v>
+        <v>13.37</v>
       </c>
       <c r="C40">
-        <v>123.19</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="B41">
-        <v>13.94</v>
+        <v>13.54</v>
       </c>
       <c r="C41">
-        <v>123.27</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="B42">
-        <v>14.09</v>
+        <v>13.73</v>
       </c>
       <c r="C42">
-        <v>123.41</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="B43">
-        <v>14.27</v>
+        <v>13.94</v>
       </c>
       <c r="C43">
-        <v>123.6</v>
+        <v>123.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="B44">
+        <v>14.09</v>
+      </c>
+      <c r="C44">
+        <v>123.41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B46">
-        <v>13.53</v>
-      </c>
-      <c r="C46">
-        <v>123.21</v>
+      <c r="A45" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B45">
+        <v>14.27</v>
+      </c>
+      <c r="C45">
+        <v>123.6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="B47">
-        <v>13.48</v>
-      </c>
-      <c r="C47">
-        <v>123.2</v>
+      <c r="A47" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="B48">
-        <v>13.44</v>
+        <v>13.53</v>
       </c>
       <c r="C48">
-        <v>123.19</v>
+        <v>123.21</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="B49">
-        <v>13.43</v>
+        <v>13.48</v>
       </c>
       <c r="C49">
-        <v>123.17</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="B50">
-        <v>13.38</v>
+        <v>13.44</v>
       </c>
       <c r="C50">
-        <v>123.16</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="B51">
-        <v>13.37</v>
+        <v>13.43</v>
       </c>
       <c r="C51">
-        <v>123.14</v>
+        <v>123.17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="B52">
-        <v>13.33</v>
+        <v>13.38</v>
       </c>
       <c r="C52">
-        <v>123.13</v>
+        <v>123.16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>13.28</v>
+        <v>13.37</v>
       </c>
       <c r="C53">
-        <v>123.12</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="B54">
-        <v>13.27</v>
+        <v>13.33</v>
       </c>
       <c r="C54">
-        <v>123.1</v>
+        <v>123.13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="B55">
-        <v>13.23</v>
+        <v>13.28</v>
       </c>
       <c r="C55">
-        <v>123.09</v>
+        <v>123.12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="B56">
+        <v>13.27</v>
+      </c>
+      <c r="C56">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="B57">
+        <v>13.23</v>
+      </c>
+      <c r="C57">
+        <v>123.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>13.22</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>123.08</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B60">
-        <v>13.79</v>
-      </c>
-      <c r="C60">
-        <v>121.09</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="B61">
-        <v>13.7</v>
-      </c>
-      <c r="C61">
-        <v>121.35</v>
+      <c r="A61" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="B62">
-        <v>13.6</v>
+        <v>13.79</v>
       </c>
       <c r="C62">
-        <v>121.69</v>
+        <v>121.09</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="B63">
-        <v>13.54</v>
+        <v>13.7</v>
       </c>
       <c r="C63">
-        <v>122.11</v>
+        <v>121.35</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="B64">
-        <v>13.44</v>
+        <v>13.6</v>
       </c>
       <c r="C64">
-        <v>122.6</v>
+        <v>121.69</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="B65">
-        <v>13.37</v>
+        <v>13.54</v>
       </c>
       <c r="C65">
-        <v>123.14</v>
+        <v>122.11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="B66">
-        <v>13.26</v>
+        <v>13.44</v>
       </c>
       <c r="C66">
-        <v>123.76</v>
+        <v>122.6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>13.18</v>
+        <v>13.37</v>
       </c>
       <c r="C67">
-        <v>123.42</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="B68">
-        <v>13.06</v>
+        <v>13.26</v>
       </c>
       <c r="C68">
-        <v>125.14</v>
+        <v>123.76</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="B69">
-        <v>12.96</v>
+        <v>13.18</v>
       </c>
       <c r="C69">
-        <v>125.88</v>
+        <v>123.42</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="B70">
-        <v>12.86</v>
+        <v>13.06</v>
       </c>
       <c r="C70">
-        <v>126.67</v>
+        <v>125.14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="B71">
+        <v>12.96</v>
+      </c>
+      <c r="C71">
+        <v>125.88</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B73">
-        <v>13.3</v>
-      </c>
-      <c r="C73">
-        <v>121.66</v>
+      <c r="A72" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>12.86</v>
+      </c>
+      <c r="C72">
+        <v>126.67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="B74">
-        <v>13.32</v>
-      </c>
-      <c r="C74">
-        <v>121.95</v>
+      <c r="A74" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="B75">
-        <v>13.33</v>
+        <v>13.3</v>
       </c>
       <c r="C75">
-        <v>122.25</v>
+        <v>121.66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="B76">
-        <v>13.35</v>
+        <v>13.32</v>
       </c>
       <c r="C76">
-        <v>122.55</v>
+        <v>121.95</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="B77">
-        <v>13.36</v>
+        <v>13.33</v>
       </c>
       <c r="C77">
-        <v>122.85</v>
+        <v>122.25</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="B78">
-        <v>13.37</v>
+        <v>13.35</v>
       </c>
       <c r="C78">
-        <v>123.14</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="B79">
-        <v>13.39</v>
+        <v>13.36</v>
       </c>
       <c r="C79">
-        <v>123.44</v>
+        <v>122.85</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>13.4</v>
+        <v>13.37</v>
       </c>
       <c r="C80">
-        <v>123.74</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="B81">
-        <v>13.37</v>
+        <v>13.39</v>
       </c>
       <c r="C81">
-        <v>124.05</v>
+        <v>123.44</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="B82">
-        <v>13.39</v>
+        <v>13.4</v>
       </c>
       <c r="C82">
-        <v>124.35</v>
+        <v>123.74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="B83">
+        <v>13.37</v>
+      </c>
+      <c r="C83">
+        <v>124.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="B84">
+        <v>13.39</v>
+      </c>
+      <c r="C84">
+        <v>124.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>13.4</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <v>124.65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>-10</v>
-      </c>
-      <c r="B87">
-        <v>13.41</v>
-      </c>
-      <c r="C87">
-        <v>123.27</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>-8</v>
-      </c>
-      <c r="B88">
-        <v>13.4</v>
-      </c>
-      <c r="C88">
-        <v>123.24</v>
+      <c r="A88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B89">
-        <v>13.39</v>
+        <v>13.41</v>
       </c>
       <c r="C89">
-        <v>123.21</v>
+        <v>123.27</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="B90">
-        <v>13.39</v>
+        <v>13.4</v>
       </c>
       <c r="C90">
-        <v>123.19</v>
+        <v>123.24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="B91">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="C91">
-        <v>123.16</v>
+        <v>123.21</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B92">
-        <v>13.37</v>
+        <v>13.39</v>
       </c>
       <c r="C92">
-        <v>123.14</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B93">
-        <v>13.37</v>
+        <v>13.38</v>
       </c>
       <c r="C93">
-        <v>123.12</v>
+        <v>123.16</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>13.36</v>
+        <v>13.37</v>
       </c>
       <c r="C94">
-        <v>123.11</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>13.35</v>
+        <v>13.37</v>
       </c>
       <c r="C95">
-        <v>123.09</v>
+        <v>123.12</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B96">
-        <v>13.34</v>
+        <v>13.36</v>
       </c>
       <c r="C96">
-        <v>123.08</v>
+        <v>123.11</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>13.33</v>
+        <v>13.35</v>
       </c>
       <c r="C97">
-        <v>123.07</v>
+        <v>123.09</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>13.34</v>
+      </c>
+      <c r="C98">
+        <v>123.08</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>-10</v>
-      </c>
-      <c r="B100">
-        <v>13.38</v>
-      </c>
-      <c r="C100">
-        <v>123.29</v>
+      <c r="A99" s="2">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>13.33</v>
+      </c>
+      <c r="C99">
+        <v>123.07</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>-8</v>
-      </c>
-      <c r="B101">
-        <v>13.37</v>
-      </c>
-      <c r="C101">
-        <v>123.25</v>
+      <c r="A101" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B102">
-        <v>13.36</v>
+        <v>13.38</v>
       </c>
       <c r="C102">
-        <v>123.22</v>
+        <v>123.29</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="B103">
-        <v>13.39</v>
+        <v>13.37</v>
       </c>
       <c r="C103">
-        <v>123.19</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="B104">
-        <v>13.38</v>
+        <v>13.36</v>
       </c>
       <c r="C104">
-        <v>123.17</v>
+        <v>123.22</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B105">
-        <v>13.37</v>
+        <v>13.39</v>
       </c>
       <c r="C105">
-        <v>123.14</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B106">
-        <v>13.37</v>
+        <v>13.38</v>
       </c>
       <c r="C106">
-        <v>123.13</v>
+        <v>123.17</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>13.36</v>
+        <v>13.37</v>
       </c>
       <c r="C107">
-        <v>123.11</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B108">
-        <v>13.35</v>
+        <v>13.37</v>
       </c>
       <c r="C108">
-        <v>123.09</v>
+        <v>123.13</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B109">
-        <v>13.35</v>
+        <v>13.36</v>
       </c>
       <c r="C109">
-        <v>123.08</v>
+        <v>123.11</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>13.35</v>
+      </c>
+      <c r="C110">
+        <v>123.09</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>13.35</v>
+      </c>
+      <c r="C111">
+        <v>123.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>10</v>
       </c>
-      <c r="B110">
+      <c r="B112">
         <v>13.34</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <v>123.07</v>
       </c>
     </row>

--- a/Tests/mpc tests.xlsx
+++ b/Tests/mpc tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\FYP\pyLanderSim\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE5EDA-DFED-4621-8651-2C0000F5C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F2A5B-B55C-4748-8D48-8DE9706CBF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Thrust modification</t>
   </si>
   <si>
-    <t>RCS modification</t>
-  </si>
-  <si>
     <t>IC x position</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>n_horizon = 50</t>
+  </si>
+  <si>
+    <t>tauMod</t>
   </si>
 </sst>
 </file>
@@ -280,37 +280,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.04</c:v>
+                  <c:v>-3.5749457394936797E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-3.5638046534758501E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.62</c:v>
+                  <c:v>-3.5543009000526003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.59</c:v>
+                  <c:v>-3.5628397478936098E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.5</c:v>
+                  <c:v>-3.5544040423476898E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.04</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.19</c:v>
+                  <c:v>-3.5519071961048199E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.02</c:v>
+                  <c:v>-3.5541873621620798E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.79</c:v>
+                  <c:v>-3.5574584092215498E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.56</c:v>
+                  <c:v>-3.5531546869402297E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.04</c:v>
+                  <c:v>-3.5581810030180801E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +546,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial dX vs Fuel Consumption</a:t>
+              <a:t>Initial dZ vs Fuel Consumption</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -613,7 +613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$62:$A$72</c:f>
+              <c:f>Sheet1!$A$75:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -655,42 +655,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$62:$C$72</c:f>
+              <c:f>Sheet1!$C$75:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>121.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122.6</c:v>
+                  <c:v>117.6283242073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.76</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>123.42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>125.88</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.67</c:v>
+                  <c:v>117.58873494175501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,7 +674,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E045-4A7E-AF97-77A6DB1AF76A}"/>
+              <c16:uniqueId val="{00000000-80FB-4DC5-B1DC-A1F9825C1AC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,766 +902,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial dZ vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$75:$A$85</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$75:$B$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBE7-49F5-BD59-951C8040AC91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="728486800"/>
-        <c:axId val="728480320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="728486800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
-          <c:min val="0.9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="728480320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="728480320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="728486800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dZ vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$75:$A$85</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$75:$C$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>121.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123.14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>123.74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>124.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>124.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>124.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80FB-4DC5-B1DC-A1F9825C1AC3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="728486800"/>
-        <c:axId val="728480320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="728486800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
-          <c:min val="0.9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="728480320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="728480320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="728486800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
               <a:t>Initial</a:t>
             </a:r>
             <a:r>
@@ -1823,7 +1039,7 @@
                   <c:v>13.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13.37</c:v>
@@ -2039,7 +1255,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2203,7 +1419,7 @@
                   <c:v>123.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.14</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>123.12</c:v>
@@ -2419,7 +1635,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2591,7 +1807,7 @@
                   <c:v>13.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13.37</c:v>
@@ -2807,7 +2023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2971,7 +2187,7 @@
                   <c:v>123.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.14</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>123.13</c:v>
@@ -3187,6 +2403,718 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Initial X vs Range Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$35:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.5478558015128399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5559123147988703E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.5535730434674097E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0C8-453E-A987-C9A2C4EDBB62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728486800"/>
+        <c:axId val="728480320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728486800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728480320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728480320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728486800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Initial X vs Fuel Consumption</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$35:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>117.762132971553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.61490109185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.622878221701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDE9-4654-A6B1-723EC71555C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728486800"/>
+        <c:axId val="728480320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728486800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728480320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728480320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728486800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3336,37 +3264,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>111.92</c:v>
+                  <c:v>111.92448601321</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>113.032300863378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.99</c:v>
+                  <c:v>114.188046590894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.21</c:v>
+                  <c:v>115.306986564425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.58</c:v>
+                  <c:v>116.42385467845401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.61</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.95</c:v>
+                  <c:v>118.862120657277</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>127.08</c:v>
+                  <c:v>120.00355584596799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129.69999999999999</c:v>
+                  <c:v>121.141777881096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.08000000000001</c:v>
+                  <c:v>122.255288374221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.38</c:v>
+                  <c:v>123.382679682237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,7 +3530,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>RCS vs Range Error</a:t>
+              <a:t>tauMod vs Range Error</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3646,7 +3574,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3674,37 +3602,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.95</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.96</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.03</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.04</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.05</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,37 +3644,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.9</c:v>
+                  <c:v>-3.5585035969829398E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.77</c:v>
+                  <c:v>-3.5556647799929397E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.68</c:v>
+                  <c:v>-3.5550486830118903E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.55</c:v>
+                  <c:v>-3.5710536470184497E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.46</c:v>
+                  <c:v>-3.5451686564465901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.25</c:v>
+                  <c:v>-3.5543244536616801E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.16</c:v>
+                  <c:v>-3.5684631437446601E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.07</c:v>
+                  <c:v>-3.5566543862019302E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.94</c:v>
+                  <c:v>-3.5566004063883098E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.85</c:v>
+                  <c:v>-3.54166035552822E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3754,7 +3682,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7AB0-4F90-9108-A3790C6021DC}"/>
+              <c16:uniqueId val="{00000000-90B0-426F-A79C-995FACBFFE3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3773,8 +3701,8 @@
         <c:axId val="728486800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.05"/>
-          <c:min val="0.95000000000000007"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3982,7 +3910,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>RCS vs Fuel Consumption</a:t>
+              <a:t>tauMod vs Fuel Consumption</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4054,37 +3982,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.95</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.96</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.03</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.04</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.05</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,37 +4024,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>123.14</c:v>
+                  <c:v>117.6283242073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.15</c:v>
+                  <c:v>117.625140133488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.14</c:v>
+                  <c:v>117.62608915466799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.15</c:v>
+                  <c:v>117.633025264881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.14</c:v>
+                  <c:v>117.618346458389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.14</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.15</c:v>
+                  <c:v>117.60804922923199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.15</c:v>
+                  <c:v>117.604990684367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.15</c:v>
+                  <c:v>117.596142236617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.15</c:v>
+                  <c:v>117.595283089327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.15</c:v>
+                  <c:v>117.58873494175501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,7 +4062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-301D-4173-BA63-35323FE99C34}"/>
+              <c16:uniqueId val="{00000000-988C-4F15-98F5-55FA84E55D73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4146,15 +4074,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="572376408"/>
-        <c:axId val="572377848"/>
+        <c:axId val="728486800"/>
+        <c:axId val="728480320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="572376408"/>
+        <c:axId val="728486800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.05"/>
-          <c:min val="0.95000000000000007"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4209,12 +4137,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572377848"/>
+        <c:crossAx val="728480320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572377848"/>
+        <c:axId val="728480320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572376408"/>
+        <c:crossAx val="728486800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4362,7 +4290,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial X vs Range Error</a:t>
+              <a:t>Initial Z vs Range Error</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4429,7 +4357,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$A$45</c:f>
+              <c:f>Sheet1!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4471,42 +4399,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$B$45</c:f>
+              <c:f>Sheet1!$B$48:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.14</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.27</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,7 +4412,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90B0-426F-A79C-995FACBFFE3D}"/>
+              <c16:uniqueId val="{00000000-D537-441D-B41C-83A968775FEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4742,7 +4640,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial X vs Fuel Consumption</a:t>
+              <a:t>Initial Z vs Fuel Consumption</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4809,7 +4707,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$A$45</c:f>
+              <c:f>Sheet1!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4851,42 +4749,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$C$45</c:f>
+              <c:f>Sheet1!$C$48:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>123.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123.58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>123.29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>123.2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>123.19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>123.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>123.41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>123.6</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4894,7 +4762,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-988C-4F15-98F5-55FA84E55D73}"/>
+              <c16:uniqueId val="{00000000-A660-4D92-92F7-1D3BA8CABDF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5122,7 +4990,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial Z vs Range Error</a:t>
+              <a:t>Initial dX vs Range Error</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5189,7 +5057,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$48:$A$58</c:f>
+              <c:f>Sheet1!$A$62:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5231,42 +5099,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$B$58</c:f>
+              <c:f>Sheet1!$B$62:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.53</c:v>
+                  <c:v>13.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.48</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13.44</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.38</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.33</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.28</c:v>
+                  <c:v>13.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.27</c:v>
+                  <c:v>13.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.23</c:v>
+                  <c:v>12.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.22</c:v>
+                  <c:v>12.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,7 +5142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D537-441D-B41C-83A968775FEF}"/>
+              <c16:uniqueId val="{00000000-0913-4973-8C1D-DAC1E367616D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5502,7 +5370,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial Z vs Fuel Consumption</a:t>
+              <a:t>Initial dX vs Fuel Consumption</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5569,7 +5437,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$48:$A$58</c:f>
+              <c:f>Sheet1!$A$62:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5611,42 +5479,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$48:$C$58</c:f>
+              <c:f>Sheet1!$C$62:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>123.21</c:v>
+                  <c:v>121.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.2</c:v>
+                  <c:v>121.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.19</c:v>
+                  <c:v>121.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.17</c:v>
+                  <c:v>122.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.16</c:v>
+                  <c:v>122.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.14</c:v>
+                  <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.13</c:v>
+                  <c:v>123.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.12</c:v>
+                  <c:v>123.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.1</c:v>
+                  <c:v>125.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.09</c:v>
+                  <c:v>125.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.08</c:v>
+                  <c:v>126.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5654,7 +5522,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A660-4D92-92F7-1D3BA8CABDF0}"/>
+              <c16:uniqueId val="{00000000-E045-4A7E-AF97-77A6DB1AF76A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5882,7 +5750,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Initial dX vs Range Error</a:t>
+              <a:t>Initial dZ vs Range Error</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5949,7 +5817,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$62:$A$72</c:f>
+              <c:f>Sheet1!$A$75:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5991,42 +5859,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$B$72</c:f>
+              <c:f>Sheet1!$B$75:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.44</c:v>
+                  <c:v>-3.5585035969829398E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.96</c:v>
+                  <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.86</c:v>
+                  <c:v>-3.54166035552822E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6034,7 +5878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0913-4973-8C1D-DAC1E367616D}"/>
+              <c16:uniqueId val="{00000000-DBE7-49F5-BD59-951C8040AC91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15200,26 +15044,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>170497</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3E49DF-7115-2899-59EF-E10B42BB3C2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D04EC33-AC7B-4D94-855A-D97D55201233}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -15236,22 +15082,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>306705</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621D1C9A-3CC7-4C1A-94EF-9FDC7F04C5D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36214145-5192-4D07-85BC-FC6C2CF5878C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15274,22 +15120,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D04EC33-AC7B-4D94-855A-D97D55201233}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBDC14-CDAB-4B73-9A45-4D58CD9F61EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15311,23 +15157,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36214145-5192-4D07-85BC-FC6C2CF5878C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95805C76-B089-4B92-A482-13AE3D7395A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15350,22 +15196,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBDC14-CDAB-4B73-9A45-4D58CD9F61EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37A0D50-403B-4462-B2B1-4F8763240077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15388,22 +15234,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95805C76-B089-4B92-A482-13AE3D7395A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CCA307-6059-47E2-98E4-011F540905E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15426,22 +15272,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37A0D50-403B-4462-B2B1-4F8763240077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE1B852-D24B-419F-B5CC-704FCB58443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15464,22 +15310,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CCA307-6059-47E2-98E4-011F540905E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D940F2-9F64-4799-9E68-108DCB4644B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15502,22 +15348,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE1B852-D24B-419F-B5CC-704FCB58443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6F24CB-4DDC-4BC7-8A0F-741B6B9A8737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15540,22 +15386,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D940F2-9F64-4799-9E68-108DCB4644B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28685E7-C9C5-47AA-811A-0E51B7C2A4B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15578,22 +15424,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
+        <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6F24CB-4DDC-4BC7-8A0F-741B6B9A8737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB964C1-B4D8-4298-A599-57BEAEED06AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15616,22 +15462,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28685E7-C9C5-47AA-811A-0E51B7C2A4B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3B1F15-9DBB-439B-954A-70C59F89C43F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15654,22 +15500,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB964C1-B4D8-4298-A599-57BEAEED06AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F749A6-F03A-4C0C-8B8D-D0F62A48B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15692,22 +15538,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3B1F15-9DBB-439B-954A-70C59F89C43F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841F7124-FD65-42FD-9F25-267B7A48D83B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16029,8 +15875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53024B73-4110-4BB0-AABF-5DA1AF3A9961}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16043,17 +15889,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -16072,10 +15918,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>-0.04</v>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C6">
-        <v>117.61</v>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -16088,10 +15934,10 @@
         <v>0.95</v>
       </c>
       <c r="B9">
-        <v>-0.04</v>
+        <v>-3.5749457394936797E-2</v>
       </c>
       <c r="C9">
-        <v>111.92</v>
+        <v>111.92448601321</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -16110,10 +15956,10 @@
         <v>0.97</v>
       </c>
       <c r="B11">
-        <v>13.62</v>
+        <v>-3.5543009000526003E-2</v>
       </c>
       <c r="C11">
-        <v>118.99</v>
+        <v>114.188046590894</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -16121,10 +15967,10 @@
         <v>0.98</v>
       </c>
       <c r="B12">
-        <v>13.59</v>
+        <v>-3.5628397478936098E-2</v>
       </c>
       <c r="C12">
-        <v>120.21</v>
+        <v>115.306986564425</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -16132,10 +15978,10 @@
         <v>0.99</v>
       </c>
       <c r="B13">
-        <v>13.5</v>
+        <v>-3.5544040423476898E-2</v>
       </c>
       <c r="C13">
-        <v>121.58</v>
+        <v>116.42385467845401</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -16144,11 +15990,11 @@
       </c>
       <c r="B14">
         <f>B6</f>
-        <v>-0.04</v>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C14">
         <f>C6</f>
-        <v>117.61</v>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -16156,10 +16002,10 @@
         <v>1.01</v>
       </c>
       <c r="B15">
-        <v>13.19</v>
+        <v>-3.5519071961048199E-2</v>
       </c>
       <c r="C15">
-        <v>124.95</v>
+        <v>118.862120657277</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -16167,10 +16013,10 @@
         <v>1.02</v>
       </c>
       <c r="B16">
-        <v>13.02</v>
+        <v>-3.5541873621620798E-2</v>
       </c>
       <c r="C16">
-        <v>127.08</v>
+        <v>120.00355584596799</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -16178,10 +16024,10 @@
         <v>1.03</v>
       </c>
       <c r="B17">
-        <v>12.79</v>
+        <v>-3.5574584092215498E-2</v>
       </c>
       <c r="C17">
-        <v>129.69999999999999</v>
+        <v>121.141777881096</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -16189,10 +16035,10 @@
         <v>1.04</v>
       </c>
       <c r="B18">
-        <v>12.56</v>
+        <v>-3.5531546869402297E-2</v>
       </c>
       <c r="C18">
-        <v>133.08000000000001</v>
+        <v>122.255288374221</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -16200,70 +16046,70 @@
         <v>1.05</v>
       </c>
       <c r="B19">
-        <v>-0.04</v>
+        <v>-3.5581810030180801E-2</v>
       </c>
       <c r="C19">
-        <v>123.38</v>
+        <v>123.382679682237</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="B22">
-        <v>13.9</v>
+        <v>-3.5585035969829398E-2</v>
       </c>
       <c r="C22">
-        <v>123.14</v>
+        <v>117.6283242073</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="B23">
-        <v>13.77</v>
+        <v>-3.5556647799929397E-2</v>
       </c>
       <c r="C23">
-        <v>123.15</v>
+        <v>117.625140133488</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="B24">
-        <v>13.68</v>
+        <v>-3.5550486830118903E-2</v>
       </c>
       <c r="C24">
-        <v>123.14</v>
+        <v>117.62608915466799</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="B25">
-        <v>13.55</v>
+        <v>-3.5710536470184497E-2</v>
       </c>
       <c r="C25">
-        <v>123.15</v>
+        <v>117.633025264881</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="B26">
-        <v>13.46</v>
+        <v>-3.5451686564465901E-2</v>
       </c>
       <c r="C26">
-        <v>123.14</v>
+        <v>117.618346458389</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -16271,70 +16117,72 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C27">
-        <v>123.14</v>
+        <f>C6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="B28">
-        <v>13.25</v>
+        <v>-3.5543244536616801E-2</v>
       </c>
       <c r="C28">
-        <v>123.15</v>
+        <v>117.60804922923199</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="B29">
-        <v>13.16</v>
+        <v>-3.5684631437446601E-2</v>
       </c>
       <c r="C29">
-        <v>123.15</v>
+        <v>117.604990684367</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="B30">
-        <v>13.07</v>
+        <v>-3.5566543862019302E-2</v>
       </c>
       <c r="C30">
-        <v>123.15</v>
+        <v>117.596142236617</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="B31">
-        <v>12.94</v>
+        <v>-3.5566004063883098E-2</v>
       </c>
       <c r="C31">
-        <v>123.15</v>
+        <v>117.595283089327</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B32">
-        <v>12.85</v>
+        <v>-3.54166035552822E-2</v>
       </c>
       <c r="C32">
-        <v>123.15</v>
+        <v>117.58873494175501</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -16342,251 +16190,147 @@
         <v>0.9</v>
       </c>
       <c r="B35">
-        <v>12.19</v>
+        <v>-3.5478558015128399E-2</v>
       </c>
       <c r="C35">
-        <v>123.78</v>
+        <v>117.762132971553</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.92</v>
       </c>
-      <c r="B36">
-        <v>12.45</v>
-      </c>
-      <c r="C36">
-        <v>123.58</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.94</v>
       </c>
-      <c r="B37">
-        <v>12.68</v>
-      </c>
-      <c r="C37">
-        <v>123.42</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.96</v>
       </c>
-      <c r="B38">
-        <v>12.93</v>
-      </c>
-      <c r="C38">
-        <v>123.29</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.98</v>
       </c>
-      <c r="B39">
-        <v>13.14</v>
-      </c>
-      <c r="C39">
-        <v>123.2</v>
-      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C40">
-        <v>123.14</v>
+        <f>$C$6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1.02</v>
       </c>
-      <c r="B41">
-        <v>13.54</v>
-      </c>
-      <c r="C41">
-        <v>123.14</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.04</v>
       </c>
-      <c r="B42">
-        <v>13.73</v>
-      </c>
-      <c r="C42">
-        <v>123.19</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1.06</v>
       </c>
-      <c r="B43">
-        <v>13.94</v>
-      </c>
-      <c r="C43">
-        <v>123.27</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1.08</v>
       </c>
-      <c r="B44">
-        <v>14.09</v>
-      </c>
-      <c r="C44">
-        <v>123.41</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B45">
-        <v>14.27</v>
+        <v>-3.5535730434674097E-2</v>
       </c>
       <c r="C45">
-        <v>123.6</v>
+        <v>119.622878221701</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
-      <c r="B48">
-        <v>13.53</v>
-      </c>
-      <c r="C48">
-        <v>123.21</v>
-      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.92</v>
       </c>
-      <c r="B49">
-        <v>13.48</v>
-      </c>
-      <c r="C49">
-        <v>123.2</v>
-      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.94</v>
       </c>
-      <c r="B50">
-        <v>13.44</v>
-      </c>
-      <c r="C50">
-        <v>123.19</v>
-      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.96</v>
       </c>
-      <c r="B51">
-        <v>13.43</v>
-      </c>
-      <c r="C51">
-        <v>123.17</v>
-      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.98</v>
       </c>
-      <c r="B52">
-        <v>13.38</v>
-      </c>
-      <c r="C52">
-        <v>123.16</v>
-      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C53">
-        <v>123.14</v>
+        <f>C6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1.02</v>
       </c>
-      <c r="B54">
-        <v>13.33</v>
-      </c>
-      <c r="C54">
-        <v>123.13</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1.04</v>
       </c>
-      <c r="B55">
-        <v>13.28</v>
-      </c>
-      <c r="C55">
-        <v>123.12</v>
-      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1.06</v>
       </c>
-      <c r="B56">
-        <v>13.27</v>
-      </c>
-      <c r="C56">
-        <v>123.1</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1.08</v>
       </c>
-      <c r="B57">
-        <v>13.23</v>
-      </c>
-      <c r="C57">
-        <v>123.09</v>
-      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B58">
-        <v>13.22</v>
-      </c>
-      <c r="C58">
-        <v>123.08</v>
-      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -16649,10 +16393,12 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C67">
-        <v>123.14</v>
+        <f>C6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -16712,7 +16458,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -16720,125 +16466,79 @@
         <v>0.9</v>
       </c>
       <c r="B75">
-        <v>13.3</v>
+        <v>-3.5585035969829398E-2</v>
       </c>
       <c r="C75">
-        <v>121.66</v>
+        <v>117.6283242073</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.92</v>
       </c>
-      <c r="B76">
-        <v>13.32</v>
-      </c>
-      <c r="C76">
-        <v>121.95</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.94</v>
       </c>
-      <c r="B77">
-        <v>13.33</v>
-      </c>
-      <c r="C77">
-        <v>122.25</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.96</v>
       </c>
-      <c r="B78">
-        <v>13.35</v>
-      </c>
-      <c r="C78">
-        <v>122.55</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.98</v>
       </c>
-      <c r="B79">
-        <v>13.36</v>
-      </c>
-      <c r="C79">
-        <v>122.85</v>
-      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1</v>
       </c>
       <c r="B80">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C80">
-        <v>123.14</v>
+        <f>C6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1.02</v>
       </c>
-      <c r="B81">
-        <v>13.39</v>
-      </c>
-      <c r="C81">
-        <v>123.44</v>
-      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1.04</v>
       </c>
-      <c r="B82">
-        <v>13.4</v>
-      </c>
-      <c r="C82">
-        <v>123.74</v>
-      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1.06</v>
       </c>
-      <c r="B83">
-        <v>13.37</v>
-      </c>
-      <c r="C83">
-        <v>124.05</v>
-      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1.08</v>
       </c>
-      <c r="B84">
-        <v>13.39</v>
-      </c>
-      <c r="C84">
-        <v>124.35</v>
-      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B85">
-        <v>13.4</v>
+        <v>-3.54166035552822E-2</v>
       </c>
       <c r="C85">
-        <v>124.65</v>
+        <v>117.58873494175501</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -16901,10 +16601,12 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C94">
-        <v>123.14</v>
+        <f>C6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -16964,7 +16666,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -17027,10 +16729,12 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>13.37</v>
+        <f>B6</f>
+        <v>-3.5559123147988703E-2</v>
       </c>
       <c r="C107">
-        <v>123.14</v>
+        <f>C6</f>
+        <v>117.61490109185</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">

--- a/Tests/mpc tests.xlsx
+++ b/Tests/mpc tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\FYP\pyLanderSim\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F2A5B-B55C-4748-8D48-8DE9706CBF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868C9B4-F0C4-4F5B-B458-81D8B7309577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
   </bookViews>
@@ -660,13 +660,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>117.6283242073</c:v>
+                  <c:v>116.49503298440101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.713614701151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.914057399898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.126173584447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.328363057299</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>117.61490109185</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.904291344368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.172954275458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.371238443084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118.591730891814</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>117.58873494175501</c:v>
+                  <c:v>118.819693346446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,37 +1048,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.41</c:v>
+                  <c:v>-3.5624844675640401E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.4</c:v>
+                  <c:v>-3.5472837330897601E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.39</c:v>
+                  <c:v>-3.5477103020182997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.39</c:v>
+                  <c:v>-3.5522837621916797E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.38</c:v>
+                  <c:v>-3.5485853104355203E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.55778432900727E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.36</c:v>
+                  <c:v>-3.5632890256791901E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.35</c:v>
+                  <c:v>-3.5523920469273301E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.34</c:v>
+                  <c:v>-3.5518426623789998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.33</c:v>
+                  <c:v>-3.5544422152478897E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,37 +1428,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>123.27</c:v>
+                  <c:v>117.84336395590699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.24</c:v>
+                  <c:v>117.80665579610999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.21</c:v>
+                  <c:v>117.80665579610999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.19</c:v>
+                  <c:v>117.783613592742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.16</c:v>
+                  <c:v>117.72887094501201</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.12</c:v>
+                  <c:v>117.52298918260399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.11</c:v>
+                  <c:v>117.50572917029299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.09</c:v>
+                  <c:v>117.487173956522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.08</c:v>
+                  <c:v>117.46619332196001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.07</c:v>
+                  <c:v>117.454675661235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,37 +1816,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.38</c:v>
+                  <c:v>-3.5548536904645101E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.5694638344798899E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.36</c:v>
+                  <c:v>-3.5548756991791199E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.39</c:v>
+                  <c:v>-3.5507267866300998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.38</c:v>
+                  <c:v>-3.5504864750724799E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.37</c:v>
+                  <c:v>-3.5515794889541E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.36</c:v>
+                  <c:v>-3.55809663073932E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.35</c:v>
+                  <c:v>-3.5552929235207698E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.35</c:v>
+                  <c:v>-3.5516158952224097E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.34</c:v>
+                  <c:v>-3.5523896503829699E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,37 +2196,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>123.29</c:v>
+                  <c:v>117.796417304607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.25</c:v>
+                  <c:v>117.79548110589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.22</c:v>
+                  <c:v>117.789468703613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.19</c:v>
+                  <c:v>117.739566069318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.17</c:v>
+                  <c:v>117.671767611566</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.13</c:v>
+                  <c:v>117.57818131607399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.11</c:v>
+                  <c:v>117.53685153326199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.09</c:v>
+                  <c:v>117.511232787821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.08</c:v>
+                  <c:v>117.51049570889199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.07</c:v>
+                  <c:v>117.50164854064001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,8 +2578,32 @@
                 <c:pt idx="0">
                   <c:v>-3.5478558015128399E-2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5472952279894901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5578623036703803E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5495092228907302E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5647484287678798E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.5559123147988703E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5479586199398998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.55154225589377E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5608240080181798E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.5518101760896897E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-3.5535730434674097E-2</c:v>
@@ -2910,8 +2958,32 @@
                 <c:pt idx="0">
                   <c:v>117.762132971553</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.73190628384199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.69836301033899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.57820515714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.530137717229</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>117.61490109185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.74855842594501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.684763311769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.815513303011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.991760787895</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>119.622878221701</c:v>
@@ -4403,8 +4475,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.55629723464439E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5539416551000298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5525909222155601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5467730702995602E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5588514471540197E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.5559123147988703E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5487938685373602E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5490352966787202E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5561688786469002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.54959348223561E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.56771596670356E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,8 +4855,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>117.751122802829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.747636630366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.745752571455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.735603695319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.67731785248399</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>117.61490109185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.577055966849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55639443707599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.55254824885201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.554060886211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.555388488456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,37 +5236,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.79</c:v>
+                  <c:v>-3.5449657418021897E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.7</c:v>
+                  <c:v>-3.5689631485689599E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.6</c:v>
+                  <c:v>-3.55224813282808E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.54</c:v>
+                  <c:v>-3.55062650670478E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.44</c:v>
+                  <c:v>-3.5596522230303199E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.26</c:v>
+                  <c:v>-3.5538066841868297E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.18</c:v>
+                  <c:v>-3.5564084264982997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.06</c:v>
+                  <c:v>-3.55334735346296E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.96</c:v>
+                  <c:v>-3.5528240593474099E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.86</c:v>
+                  <c:v>-3.5463362636923498E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5484,37 +5616,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>121.09</c:v>
+                  <c:v>117.63075384158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.35</c:v>
+                  <c:v>115.29307587612401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121.69</c:v>
+                  <c:v>115.80699939355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.11</c:v>
+                  <c:v>116.339087118964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.6</c:v>
+                  <c:v>117.012000305855</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>117.61490109185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.76</c:v>
+                  <c:v>118.206846590491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.42</c:v>
+                  <c:v>118.995088477721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.14</c:v>
+                  <c:v>119.69677798794901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>125.88</c:v>
+                  <c:v>120.46393579417401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.67</c:v>
+                  <c:v>121.349693265667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5864,13 +5996,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.5585035969829398E-2</c:v>
+                  <c:v>-3.5557558573067798E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5520930133729103E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5486584214982901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5580228536877402E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5569341636906698E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.5559123147988703E-2</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5500531718964397E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5562791110646301E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5569389777675903E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.5627180051865999E-2</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.54166035552822E-2</c:v>
+                  <c:v>-3.5472074654750198E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15875,8 +16031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53024B73-4110-4BB0-AABF-5DA1AF3A9961}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16200,21 +16356,45 @@
       <c r="A36" s="1">
         <v>0.92</v>
       </c>
+      <c r="B36">
+        <v>-3.5472952279894901E-2</v>
+      </c>
+      <c r="C36">
+        <v>117.73190628384199</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.94</v>
       </c>
+      <c r="B37">
+        <v>-3.5578623036703803E-2</v>
+      </c>
+      <c r="C37">
+        <v>117.69836301033899</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.96</v>
       </c>
+      <c r="B38">
+        <v>-3.5495092228907302E-2</v>
+      </c>
+      <c r="C38">
+        <v>117.57820515714</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.98</v>
       </c>
+      <c r="B39">
+        <v>-3.5647484287678798E-2</v>
+      </c>
+      <c r="C39">
+        <v>117.530137717229</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -16233,21 +16413,45 @@
       <c r="A41" s="1">
         <v>1.02</v>
       </c>
+      <c r="B41">
+        <v>-3.5479586199398998E-2</v>
+      </c>
+      <c r="C41">
+        <v>117.74855842594501</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.04</v>
       </c>
+      <c r="B42">
+        <v>-3.55154225589377E-2</v>
+      </c>
+      <c r="C42">
+        <v>117.684763311769</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1.06</v>
       </c>
+      <c r="B43">
+        <v>-3.5608240080181798E-2</v>
+      </c>
+      <c r="C43">
+        <v>117.815513303011</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1.08</v>
       </c>
+      <c r="B44">
+        <v>-3.5518101760896897E-2</v>
+      </c>
+      <c r="C44">
+        <v>117.991760787895</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -16269,26 +16473,56 @@
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
+      <c r="B48">
+        <v>-3.55629723464439E-2</v>
+      </c>
+      <c r="C48">
+        <v>117.751122802829</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.92</v>
       </c>
+      <c r="B49">
+        <v>-3.5539416551000298E-2</v>
+      </c>
+      <c r="C49">
+        <v>117.747636630366</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.94</v>
       </c>
+      <c r="B50">
+        <v>-3.5525909222155601E-2</v>
+      </c>
+      <c r="C50">
+        <v>117.745752571455</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.96</v>
       </c>
+      <c r="B51">
+        <v>-3.5467730702995602E-2</v>
+      </c>
+      <c r="C51">
+        <v>117.735603695319</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.98</v>
       </c>
+      <c r="B52">
+        <v>-3.5588514471540197E-2</v>
+      </c>
+      <c r="C52">
+        <v>117.67731785248399</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -16307,26 +16541,56 @@
       <c r="A54" s="1">
         <v>1.02</v>
       </c>
+      <c r="B54">
+        <v>-3.5487938685373602E-2</v>
+      </c>
+      <c r="C54">
+        <v>117.577055966849</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1.04</v>
       </c>
+      <c r="B55">
+        <v>-3.5490352966787202E-2</v>
+      </c>
+      <c r="C55">
+        <v>117.55639443707599</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1.06</v>
       </c>
+      <c r="B56">
+        <v>-3.5561688786469002E-2</v>
+      </c>
+      <c r="C56">
+        <v>117.55254824885201</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1.08</v>
       </c>
+      <c r="B57">
+        <v>-3.54959348223561E-2</v>
+      </c>
+      <c r="C57">
+        <v>117.554060886211</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="B58">
+        <v>-3.56771596670356E-2</v>
+      </c>
+      <c r="C58">
+        <v>117.555388488456</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -16338,10 +16602,10 @@
         <v>0.9</v>
       </c>
       <c r="B62">
-        <v>13.79</v>
+        <v>-3.5449657418021897E-2</v>
       </c>
       <c r="C62">
-        <v>121.09</v>
+        <v>117.63075384158</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -16349,10 +16613,10 @@
         <v>0.92</v>
       </c>
       <c r="B63">
-        <v>13.7</v>
+        <v>-3.5689631485689599E-2</v>
       </c>
       <c r="C63">
-        <v>121.35</v>
+        <v>115.29307587612401</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -16360,10 +16624,10 @@
         <v>0.94</v>
       </c>
       <c r="B64">
-        <v>13.6</v>
+        <v>-3.55224813282808E-2</v>
       </c>
       <c r="C64">
-        <v>121.69</v>
+        <v>115.80699939355</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -16371,10 +16635,10 @@
         <v>0.96</v>
       </c>
       <c r="B65">
-        <v>13.54</v>
+        <v>-3.55062650670478E-2</v>
       </c>
       <c r="C65">
-        <v>122.11</v>
+        <v>116.339087118964</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -16382,10 +16646,10 @@
         <v>0.98</v>
       </c>
       <c r="B66">
-        <v>13.44</v>
+        <v>-3.5596522230303199E-2</v>
       </c>
       <c r="C66">
-        <v>122.6</v>
+        <v>117.012000305855</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -16406,10 +16670,10 @@
         <v>1.02</v>
       </c>
       <c r="B68">
-        <v>13.26</v>
+        <v>-3.5538066841868297E-2</v>
       </c>
       <c r="C68">
-        <v>123.76</v>
+        <v>118.206846590491</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -16417,10 +16681,10 @@
         <v>1.04</v>
       </c>
       <c r="B69">
-        <v>13.18</v>
+        <v>-3.5564084264982997E-2</v>
       </c>
       <c r="C69">
-        <v>123.42</v>
+        <v>118.995088477721</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -16428,10 +16692,10 @@
         <v>1.06</v>
       </c>
       <c r="B70">
-        <v>13.06</v>
+        <v>-3.55334735346296E-2</v>
       </c>
       <c r="C70">
-        <v>125.14</v>
+        <v>119.69677798794901</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -16439,10 +16703,10 @@
         <v>1.08</v>
       </c>
       <c r="B71">
-        <v>12.96</v>
+        <v>-3.5528240593474099E-2</v>
       </c>
       <c r="C71">
-        <v>125.88</v>
+        <v>120.46393579417401</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -16450,10 +16714,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B72">
-        <v>12.86</v>
+        <v>-3.5463362636923498E-2</v>
       </c>
       <c r="C72">
-        <v>126.67</v>
+        <v>121.349693265667</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -16466,31 +16730,55 @@
         <v>0.9</v>
       </c>
       <c r="B75">
-        <v>-3.5585035969829398E-2</v>
+        <v>-3.5557558573067798E-2</v>
       </c>
       <c r="C75">
-        <v>117.6283242073</v>
+        <v>116.49503298440101</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.92</v>
       </c>
+      <c r="B76">
+        <v>-3.5520930133729103E-2</v>
+      </c>
+      <c r="C76">
+        <v>116.713614701151</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.94</v>
       </c>
+      <c r="B77">
+        <v>-3.5486584214982901E-2</v>
+      </c>
+      <c r="C77">
+        <v>116.914057399898</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.96</v>
       </c>
+      <c r="B78">
+        <v>-3.5580228536877402E-2</v>
+      </c>
+      <c r="C78">
+        <v>117.126173584447</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.98</v>
       </c>
+      <c r="B79">
+        <v>-3.5569341636906698E-2</v>
+      </c>
+      <c r="C79">
+        <v>117.328363057299</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -16509,31 +16797,55 @@
       <c r="A81" s="1">
         <v>1.02</v>
       </c>
+      <c r="B81">
+        <v>-3.5500531718964397E-2</v>
+      </c>
+      <c r="C81">
+        <v>117.904291344368</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1.04</v>
       </c>
+      <c r="B82">
+        <v>-3.5562791110646301E-2</v>
+      </c>
+      <c r="C82">
+        <v>118.172954275458</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1.06</v>
       </c>
+      <c r="B83">
+        <v>-3.5569389777675903E-2</v>
+      </c>
+      <c r="C83">
+        <v>118.371238443084</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1.08</v>
       </c>
+      <c r="B84">
+        <v>-3.5627180051865999E-2</v>
+      </c>
+      <c r="C84">
+        <v>118.591730891814</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B85">
-        <v>-3.54166035552822E-2</v>
+        <v>-3.5472074654750198E-2</v>
       </c>
       <c r="C85">
-        <v>117.58873494175501</v>
+        <v>118.819693346446</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -16546,10 +16858,10 @@
         <v>-10</v>
       </c>
       <c r="B89">
-        <v>13.41</v>
+        <v>-3.5624844675640401E-2</v>
       </c>
       <c r="C89">
-        <v>123.27</v>
+        <v>117.84336395590699</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -16557,10 +16869,10 @@
         <v>-8</v>
       </c>
       <c r="B90">
-        <v>13.4</v>
+        <v>-3.5472837330897601E-2</v>
       </c>
       <c r="C90">
-        <v>123.24</v>
+        <v>117.80665579610999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -16568,10 +16880,10 @@
         <v>-6</v>
       </c>
       <c r="B91">
-        <v>13.39</v>
+        <v>-3.5477103020182997E-2</v>
       </c>
       <c r="C91">
-        <v>123.21</v>
+        <v>117.80665579610999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -16579,10 +16891,10 @@
         <v>-4</v>
       </c>
       <c r="B92">
-        <v>13.39</v>
+        <v>-3.5522837621916797E-2</v>
       </c>
       <c r="C92">
-        <v>123.19</v>
+        <v>117.783613592742</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -16590,10 +16902,10 @@
         <v>-2</v>
       </c>
       <c r="B93">
-        <v>13.38</v>
+        <v>-3.5485853104355203E-2</v>
       </c>
       <c r="C93">
-        <v>123.16</v>
+        <v>117.72887094501201</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -16614,10 +16926,10 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>13.37</v>
+        <v>-3.55778432900727E-2</v>
       </c>
       <c r="C95">
-        <v>123.12</v>
+        <v>117.52298918260399</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -16625,10 +16937,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>13.36</v>
+        <v>-3.5632890256791901E-2</v>
       </c>
       <c r="C96">
-        <v>123.11</v>
+        <v>117.50572917029299</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -16636,10 +16948,10 @@
         <v>6</v>
       </c>
       <c r="B97">
-        <v>13.35</v>
+        <v>-3.5523920469273301E-2</v>
       </c>
       <c r="C97">
-        <v>123.09</v>
+        <v>117.487173956522</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -16647,10 +16959,10 @@
         <v>8</v>
       </c>
       <c r="B98">
-        <v>13.34</v>
+        <v>-3.5518426623789998E-2</v>
       </c>
       <c r="C98">
-        <v>123.08</v>
+        <v>117.46619332196001</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -16658,10 +16970,10 @@
         <v>10</v>
       </c>
       <c r="B99">
-        <v>13.33</v>
+        <v>-3.5544422152478897E-2</v>
       </c>
       <c r="C99">
-        <v>123.07</v>
+        <v>117.454675661235</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -16674,10 +16986,10 @@
         <v>-10</v>
       </c>
       <c r="B102">
-        <v>13.38</v>
+        <v>-3.5548536904645101E-2</v>
       </c>
       <c r="C102">
-        <v>123.29</v>
+        <v>117.796417304607</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -16685,10 +16997,10 @@
         <v>-8</v>
       </c>
       <c r="B103">
-        <v>13.37</v>
+        <v>-3.5694638344798899E-2</v>
       </c>
       <c r="C103">
-        <v>123.25</v>
+        <v>117.79548110589</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -16696,10 +17008,10 @@
         <v>-6</v>
       </c>
       <c r="B104">
-        <v>13.36</v>
+        <v>-3.5548756991791199E-2</v>
       </c>
       <c r="C104">
-        <v>123.22</v>
+        <v>117.789468703613</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -16707,10 +17019,10 @@
         <v>-4</v>
       </c>
       <c r="B105">
-        <v>13.39</v>
+        <v>-3.5507267866300998E-2</v>
       </c>
       <c r="C105">
-        <v>123.19</v>
+        <v>117.739566069318</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -16718,10 +17030,10 @@
         <v>-2</v>
       </c>
       <c r="B106">
-        <v>13.38</v>
+        <v>-3.5504864750724799E-2</v>
       </c>
       <c r="C106">
-        <v>123.17</v>
+        <v>117.671767611566</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -16742,10 +17054,10 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>13.37</v>
+        <v>-3.5515794889541E-2</v>
       </c>
       <c r="C108">
-        <v>123.13</v>
+        <v>117.57818131607399</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -16753,10 +17065,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>13.36</v>
+        <v>-3.55809663073932E-2</v>
       </c>
       <c r="C109">
-        <v>123.11</v>
+        <v>117.53685153326199</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -16764,10 +17076,10 @@
         <v>6</v>
       </c>
       <c r="B110">
-        <v>13.35</v>
+        <v>-3.5552929235207698E-2</v>
       </c>
       <c r="C110">
-        <v>123.09</v>
+        <v>117.511232787821</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -16775,10 +17087,10 @@
         <v>8</v>
       </c>
       <c r="B111">
-        <v>13.35</v>
+        <v>-3.5516158952224097E-2</v>
       </c>
       <c r="C111">
-        <v>123.08</v>
+        <v>117.51049570889199</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -16786,10 +17098,10 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>13.34</v>
+        <v>-3.5523896503829699E-2</v>
       </c>
       <c r="C112">
-        <v>123.07</v>
+        <v>117.50164854064001</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/mpc tests.xlsx
+++ b/Tests/mpc tests.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\FYP\pyLanderSim\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868C9B4-F0C4-4F5B-B458-81D8B7309577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2194C-B4F7-485F-808A-F45B01AC4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
+    <workbookView xWindow="28680" yWindow="-3600" windowWidth="29040" windowHeight="15840" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Base case</t>
   </si>
@@ -70,6 +71,12 @@
   </si>
   <si>
     <t>tauMod</t>
+  </si>
+  <si>
+    <t>TVC</t>
+  </si>
+  <si>
+    <t>Conventional</t>
   </si>
 </sst>
 </file>
@@ -140,67 +147,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Thrust vs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Range Error</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -356,10 +303,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -418,6 +420,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -525,62 +582,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dZ vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -736,6 +738,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -798,6 +855,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2441,62 +2553,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial X vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2652,10 +2709,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2714,6 +2826,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2821,62 +2988,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial X vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3032,6 +3144,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3094,6 +3261,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3187,7 +3409,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3222,8 +3444,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Thrust vs Fuel Consumption</a:t>
+              <a:t>Landing</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Error [m] vs Thrust</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3257,6 +3484,1056 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conventional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7069-472F-AE08-DE81E96BE293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.5749457394936797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5638046534758501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5543009000526003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5628397478936098E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5544040423476898E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5559123147988703E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5519071961048199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5541873621620798E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5574584092215498E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.5531546869402297E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.5581810030180801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7069-472F-AE08-DE81E96BE293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="793877624"/>
+        <c:axId val="793874384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="793877624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793874384"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="793874384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793877624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Fuel Consumption [kg] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>vs Thrust</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conventional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>116.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF53-4EF5-9DD0-DB1AC2737A3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>111.92448601321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.032300863378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.188046590894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.306986564425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.42385467845401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.61490109185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.862120657277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.00355584596799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.141777881096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.255288374221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.382679682237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF53-4EF5-9DD0-DB1AC2737A3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="793877624"/>
+        <c:axId val="793874384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="793877624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793874384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="793874384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793877624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3412,6 +4689,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3474,6 +4806,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4341,62 +5728,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial Z vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4552,10 +5884,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4614,6 +6001,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4721,62 +6163,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial Z vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4932,6 +6319,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4994,6 +6436,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> [kg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5101,62 +6603,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dX vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5312,10 +6759,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5374,6 +6876,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5481,62 +7038,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dX vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5692,6 +7194,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5754,6 +7311,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5861,62 +7473,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dZ vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6072,10 +7629,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6134,6 +7746,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6547,6 +8214,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10480,6 +12227,1038 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15732,6 +18511,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADED2CA7-1BA7-19EC-9CD7-EF3BA301703E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75096922-6038-4E2D-83C9-460DA67C9271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16029,17 +18887,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53024B73-4110-4BB0-AABF-5DA1AF3A9961}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="U88" sqref="U88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16175,7 +19033,7 @@
         <v>120.00355584596799</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.03</v>
       </c>
@@ -16186,7 +19044,7 @@
         <v>121.141777881096</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1.04</v>
       </c>
@@ -16197,7 +19055,7 @@
         <v>122.255288374221</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1.05</v>
       </c>
@@ -16207,13 +19065,17 @@
       <c r="C19">
         <v>123.382679682237</v>
       </c>
+      <c r="D19">
+        <f>B19-B9</f>
+        <v>1.6764736475599618E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.9</v>
       </c>
@@ -16224,7 +19086,7 @@
         <v>117.6283242073</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.92</v>
       </c>
@@ -16235,7 +19097,7 @@
         <v>117.625140133488</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.94</v>
       </c>
@@ -16246,7 +19108,7 @@
         <v>117.62608915466799</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.96</v>
       </c>
@@ -16257,7 +19119,7 @@
         <v>117.633025264881</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.98</v>
       </c>
@@ -16268,7 +19130,7 @@
         <v>117.618346458389</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -16281,7 +19143,7 @@
         <v>117.61490109185</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1.02</v>
       </c>
@@ -16292,7 +19154,7 @@
         <v>117.60804922923199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1.04</v>
       </c>
@@ -16303,7 +19165,7 @@
         <v>117.604990684367</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1.06</v>
       </c>
@@ -16314,7 +19176,7 @@
         <v>117.596142236617</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1.08</v>
       </c>
@@ -16325,7 +19187,7 @@
         <v>117.595283089327</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16336,12 +19198,12 @@
         <v>117.58873494175501</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.9</v>
       </c>
@@ -16352,7 +19214,7 @@
         <v>117.762132971553</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.92</v>
       </c>
@@ -16363,7 +19225,7 @@
         <v>117.73190628384199</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.94</v>
       </c>
@@ -16374,7 +19236,7 @@
         <v>117.69836301033899</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.96</v>
       </c>
@@ -16385,7 +19247,7 @@
         <v>117.57820515714</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.98</v>
       </c>
@@ -16396,7 +19258,7 @@
         <v>117.530137717229</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -16409,7 +19271,7 @@
         <v>117.61490109185</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1.02</v>
       </c>
@@ -16420,7 +19282,7 @@
         <v>117.74855842594501</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.04</v>
       </c>
@@ -16431,7 +19293,7 @@
         <v>117.684763311769</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1.06</v>
       </c>
@@ -16442,7 +19304,7 @@
         <v>117.815513303011</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1.08</v>
       </c>
@@ -16452,8 +19314,12 @@
       <c r="C44">
         <v>117.991760787895</v>
       </c>
+      <c r="D44">
+        <f>C45-C35</f>
+        <v>1.8607452501479997</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16463,13 +19329,21 @@
       <c r="C45">
         <v>119.622878221701</v>
       </c>
+      <c r="D45">
+        <f>B45-B35</f>
+        <v>-5.7172419545697961E-5</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
+      <c r="D47">
+        <f>AVERAGE(D45,D58)</f>
+        <v>-8.5679870068699343E-5</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
@@ -16480,7 +19354,7 @@
         <v>117.751122802829</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.92</v>
       </c>
@@ -16491,7 +19365,7 @@
         <v>117.747636630366</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.94</v>
       </c>
@@ -16502,7 +19376,7 @@
         <v>117.745752571455</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.96</v>
       </c>
@@ -16513,7 +19387,7 @@
         <v>117.735603695319</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.98</v>
       </c>
@@ -16524,7 +19398,7 @@
         <v>117.67731785248399</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -16537,7 +19411,7 @@
         <v>117.61490109185</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1.02</v>
       </c>
@@ -16548,7 +19422,7 @@
         <v>117.577055966849</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1.04</v>
       </c>
@@ -16559,7 +19433,7 @@
         <v>117.55639443707599</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1.06</v>
       </c>
@@ -16570,7 +19444,7 @@
         <v>117.55254824885201</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1.08</v>
       </c>
@@ -16580,8 +19454,12 @@
       <c r="C57">
         <v>117.554060886211</v>
       </c>
+      <c r="D57">
+        <f>C58-C48</f>
+        <v>-0.1957343143729986</v>
+      </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16591,13 +19469,17 @@
       <c r="C58">
         <v>117.555388488456</v>
       </c>
+      <c r="D58">
+        <f>B58-B48</f>
+        <v>-1.1418732059170073E-4</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.9</v>
       </c>
@@ -16608,7 +19490,7 @@
         <v>117.63075384158</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.92</v>
       </c>
@@ -16619,7 +19501,7 @@
         <v>115.29307587612401</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.94</v>
       </c>
@@ -16630,7 +19512,7 @@
         <v>115.80699939355</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.96</v>
       </c>
@@ -16641,7 +19523,7 @@
         <v>116.339087118964</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.98</v>
       </c>
@@ -16652,7 +19534,7 @@
         <v>117.012000305855</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -16665,7 +19547,7 @@
         <v>117.61490109185</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1.02</v>
       </c>
@@ -16676,7 +19558,7 @@
         <v>118.206846590491</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1.04</v>
       </c>
@@ -16687,7 +19569,7 @@
         <v>118.995088477721</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1.06</v>
       </c>
@@ -16698,7 +19580,7 @@
         <v>119.69677798794901</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1.08</v>
       </c>
@@ -16708,8 +19590,12 @@
       <c r="C71">
         <v>120.46393579417401</v>
       </c>
+      <c r="D71">
+        <f>C72-C62</f>
+        <v>3.7189394240869973</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16719,13 +19605,17 @@
       <c r="C72">
         <v>121.349693265667</v>
       </c>
+      <c r="D72">
+        <f>B72-B62</f>
+        <v>-1.370521890160098E-5</v>
+      </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.9</v>
       </c>
@@ -16736,7 +19626,7 @@
         <v>116.49503298440101</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.92</v>
       </c>
@@ -16747,7 +19637,7 @@
         <v>116.713614701151</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.94</v>
       </c>
@@ -16758,7 +19648,7 @@
         <v>116.914057399898</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.96</v>
       </c>
@@ -16769,7 +19659,7 @@
         <v>117.126173584447</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.98</v>
       </c>
@@ -16780,7 +19670,7 @@
         <v>117.328363057299</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -16793,7 +19683,7 @@
         <v>117.61490109185</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1.02</v>
       </c>
@@ -16804,7 +19694,7 @@
         <v>117.904291344368</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1.04</v>
       </c>
@@ -16815,7 +19705,7 @@
         <v>118.172954275458</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1.06</v>
       </c>
@@ -16826,7 +19716,7 @@
         <v>118.371238443084</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1.08</v>
       </c>
@@ -16836,8 +19726,12 @@
       <c r="C84">
         <v>118.591730891814</v>
       </c>
+      <c r="D84">
+        <f>C85-C75</f>
+        <v>2.3246603620449946</v>
+      </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16847,13 +19741,17 @@
       <c r="C85">
         <v>118.819693346446</v>
       </c>
+      <c r="D85">
+        <f>B85-B75</f>
+        <v>8.5483918317599827E-5</v>
+      </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>-10</v>
       </c>
@@ -16864,7 +19762,7 @@
         <v>117.84336395590699</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-8</v>
       </c>
@@ -16875,7 +19773,7 @@
         <v>117.80665579610999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>-6</v>
       </c>
@@ -16886,7 +19784,7 @@
         <v>117.80665579610999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-4</v>
       </c>
@@ -16897,7 +19795,7 @@
         <v>117.783613592742</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>-2</v>
       </c>
@@ -16908,7 +19806,7 @@
         <v>117.72887094501201</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
@@ -16921,7 +19819,7 @@
         <v>117.61490109185</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -16932,7 +19830,7 @@
         <v>117.52298918260399</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -17102,6 +20000,226 @@
       </c>
       <c r="C112">
         <v>117.50164854064001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C03B2-71A9-40D1-9241-4FCA2D23408F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B2">
+        <v>13.47</v>
+      </c>
+      <c r="C2">
+        <v>-3.5749457394936797E-2</v>
+      </c>
+      <c r="D2">
+        <v>116.89</v>
+      </c>
+      <c r="E2">
+        <v>111.92448601321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B3">
+        <v>13.58</v>
+      </c>
+      <c r="C3">
+        <v>-3.5638046534758501E-2</v>
+      </c>
+      <c r="D3">
+        <v>117.89</v>
+      </c>
+      <c r="E3">
+        <v>113.032300863378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="B4">
+        <v>13.62</v>
+      </c>
+      <c r="C4">
+        <v>-3.5543009000526003E-2</v>
+      </c>
+      <c r="D4">
+        <v>118.99</v>
+      </c>
+      <c r="E4">
+        <v>114.188046590894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="B5">
+        <v>13.59</v>
+      </c>
+      <c r="C5">
+        <v>-3.5628397478936098E-2</v>
+      </c>
+      <c r="D5">
+        <v>120.21</v>
+      </c>
+      <c r="E5">
+        <v>115.306986564425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B6">
+        <v>13.5</v>
+      </c>
+      <c r="C6">
+        <v>-3.5544040423476898E-2</v>
+      </c>
+      <c r="D6">
+        <v>121.58</v>
+      </c>
+      <c r="E6">
+        <v>116.42385467845401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>13.37</v>
+      </c>
+      <c r="C7">
+        <v>-3.5559123147988703E-2</v>
+      </c>
+      <c r="D7">
+        <v>123.14</v>
+      </c>
+      <c r="E7">
+        <v>117.61490109185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="B8">
+        <v>13.19</v>
+      </c>
+      <c r="C8">
+        <v>-3.5519071961048199E-2</v>
+      </c>
+      <c r="D8">
+        <v>124.95</v>
+      </c>
+      <c r="E8">
+        <v>118.862120657277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B9">
+        <v>13.02</v>
+      </c>
+      <c r="C9">
+        <v>-3.5541873621620798E-2</v>
+      </c>
+      <c r="D9">
+        <v>127.08</v>
+      </c>
+      <c r="E9">
+        <v>120.00355584596799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="B10">
+        <v>12.79</v>
+      </c>
+      <c r="C10">
+        <v>-3.5574584092215498E-2</v>
+      </c>
+      <c r="D10">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="E10">
+        <v>121.141777881096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="B11">
+        <v>12.56</v>
+      </c>
+      <c r="C11">
+        <v>-3.5531546869402297E-2</v>
+      </c>
+      <c r="D11">
+        <v>133.08000000000001</v>
+      </c>
+      <c r="E11">
+        <v>122.255288374221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="B12">
+        <v>12.31</v>
+      </c>
+      <c r="C12">
+        <v>-3.5581810030180801E-2</v>
+      </c>
+      <c r="D12">
+        <v>137.94</v>
+      </c>
+      <c r="E12">
+        <v>123.382679682237</v>
       </c>
     </row>
   </sheetData>
